--- a/limpios/REFRIGERACI-7d-clean.xlsx
+++ b/limpios/REFRIGERACI-7d-clean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,140 +436,230 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>date_start</t>
+          <t>Inicio del informe</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>date_end</t>
+          <t>Fin del informe</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Nombre del anuncio</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre del conjunto de anuncios</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Presupuesto del conjunto de anuncios</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo de presupuesto del conjunto de anuncios</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>spend</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Impresiones</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Alcance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Frecuencia</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Clasificación de calidad</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Clasificación del porcentaje de interacción</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Conversaciones con mensajes iniciadas</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Contactos de mensajes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Costo por contacto de mensajes (ARS)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Costo por conversación con mensajes iniciada (ARS)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Visitas al perfil de Instagram</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>link_clicks</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Clics salientes</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Entrega del anuncio</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Indicador de resultado</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>msg_init</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>msg_contacts</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ig_profile</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>impressions</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>ctr</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>cpc</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>cpm</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>leads</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>cpl</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>purchases</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>roas</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>conversion_value</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>interactions</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>video_views</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>thruplay</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
           <t>ad_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Entrega del anuncio</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Indicador de resultado</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Costo por resultados</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Presupuesto del conjunto de anuncios</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de presupuesto del conjunto de anuncios</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>spend</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Impresiones</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Alcance</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Finalización</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Configuración de atribución</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Puja</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de puja</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Último cambio significativo</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Clasificación de calidad</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Clasificación del porcentaje de interacción</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Clasificación del porcentaje de conversiones</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre del conjunto de anuncios</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>msg_init</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>msg_contacts</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>link_clicks</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>ig_profile</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>placement</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>_tipo_archivo</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>_periodo</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>_archivo_origen</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>score</t>
         </is>
@@ -578,94 +668,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>🧰 Así fabricamos y montamos una cámara frigorífica</t>
+          <t>Ofrecemos la asistencia técnica que tu negocio necesita:</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Trafico IG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tráfico</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="I2" t="n">
+        <v>19</v>
+      </c>
+      <c r="J2" t="n">
+        <v>19</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>inactive</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Con el presupuesto de la campaña</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>En curso</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>ABSOLUTE_OCPM</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2025-08-11T18:49:04-0300</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Ventas WhatsApp -&gt;</t>
-        </is>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>profile_visit_view</t>
+        </is>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -681,100 +759,148 @@
       </c>
       <c r="AB2" t="n">
         <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Ofrecemos la asistencia técnica que tu negocio necesita:</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>REFRIGERACI-7d.xlsx</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AT2" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>¡Instalamos un sistema de climatización de forma</t>
+          <t>🧊 Somos Refrigeración Perri</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Trafico IG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tráfico</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>active</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Con el presupuesto de la campaña</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>474.96</v>
-      </c>
-      <c r="K3" t="n">
-        <v>56</v>
-      </c>
-      <c r="L3" t="n">
-        <v>44</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>En curso</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>7 días tras clic o 1 día tras visualización</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>ABSOLUTE_OCPM</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2025-08-11T18:49:04-0300</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Ventas WhatsApp -&gt;</t>
-        </is>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
         <v>0</v>
       </c>
@@ -788,101 +914,149 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>🧊 Somos Refrigeración Perri</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>REFRIGERACI-7d.xlsx</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AT3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>¡Obra de climatización en Parque Industrial de Pilar!</t>
+          <t>¡Garantizamos un enfriamiento continuo y sin</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Trafico IG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tráfico</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>inactive</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Con el presupuesto de la campaña</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>En curso</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>ABSOLUTE_OCPM</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2025-08-11T18:49:04-0300</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Ventas WhatsApp -&gt;</t>
-        </is>
-      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
         <v>0</v>
       </c>
@@ -896,107 +1070,149 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>¡Garantizamos un enfriamiento continuo y sin</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>REFRIGERACI-7d.xlsx</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AT4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ofrecemos la asistencia técnica que tu negocio necesita:</t>
+          <t>¡Obra de climatización en Parque Industrial de Pilar!</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>actions:onsite_conversion.messaging_conversation_started_7d</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3390.3875</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Con el presupuesto de la campaña</t>
-        </is>
+          <t>Trafico IG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tráfico</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>40.69</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>13561.55</v>
+        <v>31</v>
       </c>
       <c r="K5" t="n">
-        <v>2717</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1582</v>
+        <v>1.032258</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>En curso</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>7 días tras clic o 1 día tras visualización</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>ABSOLUTE_OCPM</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>2025-08-11T18:49:04-0300</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Por debajo del promedio - 20% de los anuncios menos relevantes</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Ventas WhatsApp -&gt;</t>
+          <t>inactive</t>
         </is>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
         <v>0</v>
       </c>
@@ -1010,100 +1226,152 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>¡Obra de climatización en Parque Industrial de Pilar!</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>REFRIGERACI-7d.xlsx</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lo caro no es el mantenimiento, es la falla.</t>
+          <t>🌡️ Climatización personalizada para tu negocio.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Con el presupuesto de la campaña</t>
-        </is>
+          <t>Trafico IG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tráfico</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>605.99</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
+        <v>1.143072</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Por encima del promedio</t>
+        </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>En curso</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>ABSOLUTE_OCPM</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2025-08-11T18:49:04-0300</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>18</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Ventas WhatsApp -&gt;</t>
+          <t>active</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>profile_visit_view</t>
+        </is>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1119,114 +1387,712 @@
       </c>
       <c r="AB6" t="n">
         <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>🌡️ Climatización personalizada para tu negocio.</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>REFRIGERACI-7d.xlsx</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AT6" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>🧊 Cuando otros tardan en conseguir un repuesto… nosotros ya lo tenemos.</t>
+          <t>🛠️ ¡Asegurá la continuidad de tu producción!</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Con el presupuesto de la campaña</t>
-        </is>
+          <t>Trafico IG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tráfico</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6286.93</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>11261</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>9883</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
+        <v>1.139431</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Promedio</t>
+        </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>En curso</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>ABSOLUTE_OCPM</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2025-08-11T18:49:04-0300</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>124</v>
+      </c>
+      <c r="S7" t="n">
+        <v>130</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>124</v>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>profile_visit_view</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>🛠️ ¡Asegurá la continuidad de tu producción!</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>REFRIGERACI-7d.xlsx</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AT7" t="n">
+        <v>143.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Evitá fallas -ian</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Trafico IG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tráfico</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>653.91</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1002</v>
+      </c>
+      <c r="J8" t="n">
+        <v>931</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.076262</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Promedio</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>12</v>
+      </c>
+      <c r="S8" t="n">
+        <v>11</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>12</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>profile_visit_view</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Evitá fallas -ian</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>REFRIGERACI-7d.xlsx</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AT8" t="n">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>En Perri trabajamos con empresas-ian</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Trafico IG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tráfico</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>101.63</v>
+      </c>
+      <c r="I9" t="n">
+        <v>137</v>
+      </c>
+      <c r="J9" t="n">
+        <v>128</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.070313</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Ventas WhatsApp -&gt;</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>4</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>profile_visit_view</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>En Perri trabajamos con empresas-ian</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>REFRIGERACI-7d.xlsx</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AT9" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>no es cuestión de suerte-ian</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Trafico IG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tráfico</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2731.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4900</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4428</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.106594</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Promedio</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>60</v>
+      </c>
+      <c r="S10" t="n">
+        <v>62</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>60</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>profile_visit_view</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>no es cuestión de suerte-ian</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>7d</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>REFRIGERACI-7d.xlsx</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AT10" t="n">
+        <v>69.3</v>
       </c>
     </row>
   </sheetData>
